--- a/primary/data.xlsx
+++ b/primary/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calmi2\Documents\GitHub\Data\primary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68664087-86C6-479A-986E-7A3354A0B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE184BE-A6C4-405C-93EF-6EFC52201188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="545" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="545" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="967">
   <si>
     <t>searchLogic</t>
   </si>
@@ -2583,21 +2583,6 @@
     <t>Registries?</t>
   </si>
   <si>
-    <t>R3
-I1</t>
-  </si>
-  <si>
-    <t>F1.2
-F2
-F3
-F4
-I1
-I2
-R1
-R1.2
-R2</t>
-  </si>
-  <si>
     <t>PuReGoMe has a (versioned) DOI from Zenodo (F1)
 gammaShiny has been deposited in the HAL French national archive and it has a persistent globally unique identifier8 (F1) with the HAL identifier of the metadata record and a SWHID, identifying specifically the software artefact on the Software Heritage universal software source code archive</t>
   </si>
@@ -2986,9 +2971,6 @@
   </si>
   <si>
     <t xml:space="preserve">Include metadata that follows community standards and uses controlled vocabulary (F2). The metadata needs to include plurality of attributes, i.e. use multiple terms for the same, similar, or overlapping concept (R1). The metadata is required to include several elements: relation between different versions of a software (F1.2), the identifier of the software and describes how it can be obtained (F3), information about citing the software (F4), the standards followed by the data interacting with the software (I1), qualified references to other objects required to run the software (I2), detailed provenance of the software (i.e., why and how the software came to be, as well as who contributed what, when and where) (R1.2), and qualified references to other software required to run the software (R2). Metadata needs to be included in both machine readable and human-readable e.g. software documentation format (F4, R1). The documentation needs to meet domain-relevant community standards (R3). Version control systems such as GitHub can be used to record details of the software development history (R1). </t>
-  </si>
-  <si>
-    <t>Principles covered</t>
   </si>
   <si>
     <t>What relevant standards exist for metadata format and structure (outside of repositories and registries) that allows to document the mandatory metadata in human and machine-readable format? 
@@ -3000,9 +2982,6 @@
 - Detailed provenance of the software (i.e., why and how the software came to be, as well as who contributed what, when and where) (R1.2)
 - Qualified references to other software required to run the software (R2)
 How can biomedical research software be documented following relevant standards (documentation format, documentation content)?</t>
-  </si>
-  <si>
-    <t>Archive in a repository</t>
   </si>
   <si>
     <t>Register in a registry</t>
@@ -3160,12 +3139,6 @@
     <t xml:space="preserve">Free text </t>
   </si>
   <si>
-    <t>FAIR4RS principles covered</t>
-  </si>
-  <si>
-    <t>ID of the FAIR4RS principles</t>
-  </si>
-  <si>
     <t>Outstanding questions for implementing the actionable instructions</t>
   </si>
   <si>
@@ -3283,6 +3256,12 @@
     <t>https://the-turing-way.netlify.app/reproducible-research/licensing/licensing-software.html
 https://choosealicense.com/
 Create a new file and name is License.txt or License.md based on your preference of the file format</t>
+  </si>
+  <si>
+    <t>Share software in a repository</t>
+  </si>
+  <si>
+    <t>Questions for fulfilling the instructions</t>
   </si>
 </sst>
 </file>
@@ -3771,10 +3750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2427A3B1-0328-4098-ADF9-6D0FBB76AA04}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3809,7 +3788,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B2" t="s">
         <v>525</v>
@@ -3821,15 +3800,15 @@
         <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B3" t="s">
         <v>526</v>
@@ -3841,1532 +3820,1512 @@
         <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B4" t="s">
         <v>529</v>
       </c>
       <c r="C4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C5" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F5" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>919</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="C6" t="s">
         <v>923</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="C6" t="s">
-        <v>927</v>
-      </c>
       <c r="D6" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E6" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F6" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C7" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D7" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E7" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F7" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>885</v>
+        <v>960</v>
       </c>
       <c r="C8" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D8" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="E8" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F8" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>966</v>
+        <v>920</v>
       </c>
       <c r="C9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E9" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F9" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>923</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>924</v>
+        <v>929</v>
+      </c>
+      <c r="B10" t="s">
+        <v>931</v>
       </c>
       <c r="C10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D10" t="s">
-        <v>928</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F10" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B11" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C11" t="s">
+        <v>933</v>
+      </c>
+      <c r="D11" t="s">
         <v>938</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F11" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>929</v>
+      </c>
+      <c r="B12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C12" t="s">
         <v>935</v>
       </c>
-      <c r="B12" t="s">
-        <v>940</v>
-      </c>
-      <c r="C12" t="s">
-        <v>939</v>
-      </c>
       <c r="D12" t="s">
-        <v>944</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F12" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B13" t="s">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>941</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F13" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>936</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F14" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F15" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>943</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F16" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F17" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F18" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F19" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F20" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
+        <v>939</v>
       </c>
       <c r="E21" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F21" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B22" t="s">
-        <v>937</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>945</v>
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F22" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F23" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>626</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>627</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F24" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B25" t="s">
-        <v>626</v>
+        <v>943</v>
       </c>
       <c r="C25" t="s">
-        <v>627</v>
+        <v>942</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F25" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B26" t="s">
-        <v>949</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>948</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F26" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>764</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>941</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F27" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B28" t="s">
-        <v>764</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>947</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F28" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>946</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>925</v>
-      </c>
-      <c r="F29" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B30" t="s">
-        <v>952</v>
+        <v>764</v>
       </c>
       <c r="C30" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B31" t="s">
-        <v>764</v>
+        <v>931</v>
       </c>
       <c r="C31" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B32" t="s">
-        <v>937</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>945</v>
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>921</v>
+      </c>
+      <c r="F32" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F33" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F34" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F35" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F36" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F37" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F38" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F39" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F40" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F41" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F42" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F43" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F44" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F45" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F46" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
         <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F47" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
         <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F48" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
         <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F49" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
         <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F50" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F51" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
         <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F52" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
         <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F53" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F54" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F55" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F56" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" t="s">
-        <v>925</v>
-      </c>
-      <c r="F57" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>946</v>
       </c>
       <c r="C58" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B59" t="s">
-        <v>952</v>
+        <v>764</v>
       </c>
       <c r="C59" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B60" t="s">
-        <v>764</v>
+        <v>931</v>
       </c>
       <c r="C60" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B61" t="s">
-        <v>937</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>956</v>
+        <v>951</v>
+      </c>
+      <c r="D69" t="s">
+        <v>952</v>
+      </c>
+      <c r="E69" t="s">
+        <v>921</v>
+      </c>
+      <c r="F69" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D70" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E70" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F70" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D71" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E71" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F71" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D72" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E72" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F72" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D73" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E73" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F73" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D74" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E74" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F74" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D75" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E75" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F75" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D76" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E76" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F76" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D77" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E77" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F77" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D78" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E78" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F78" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D79" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E79" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F79" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D80" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E80" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F80" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D81" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E81" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F81" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D82" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E82" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F82" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D83" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E83" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F83" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D84" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E84" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F84" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D85" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E85" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F85" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>955</v>
-      </c>
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" t="s">
-        <v>957</v>
-      </c>
-      <c r="D86" t="s">
-        <v>958</v>
-      </c>
-      <c r="E86" t="s">
-        <v>925</v>
-      </c>
-      <c r="F86" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -6236,41 +6195,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3402B4BF-7BA0-4B6A-ADE0-C35D566CD98E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="29.1796875" style="17"/>
-    <col min="3" max="4" width="54.7265625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="57.7265625" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="29.1796875" style="17"/>
+    <col min="3" max="3" width="54.7265625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="57.7265625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="29.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>885</v>
+        <v>966</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>966</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -6281,16 +6237,13 @@
         <v>592</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>769</v>
+        <v>962</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>968</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -6298,19 +6251,16 @@
         <v>594</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>770</v>
+        <v>883</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -6320,44 +6270,44 @@
       <c r="C4" s="17" t="s">
         <v>588</v>
       </c>
+      <c r="D4" s="17" t="s">
+        <v>589</v>
+      </c>
       <c r="E4" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>887</v>
+        <v>965</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>960</v>
+        <v>954</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>955</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>961</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>591</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>590</v>
+      </c>
       <c r="E6" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="F6" s="17" t="s">
         <v>768</v>
       </c>
     </row>
@@ -6372,7 +6322,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6392,10 +6342,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>597</v>
@@ -6467,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C3" s="5">
         <v>44983</v>
@@ -6655,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49D82B-1314-44E9-9C10-AF21C213EB48}">
   <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6673,7 +6623,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>30</v>
@@ -6685,7 +6635,7 @@
         <v>626</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>36</v>
@@ -13760,7 +13710,7 @@
         <v>5</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>620</v>
@@ -13783,10 +13733,10 @@
         <v>5</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D310" s="12">
         <v>14</v>
@@ -13806,7 +13756,7 @@
         <v>5</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C311" s="12" t="s">
         <v>618</v>
@@ -13829,7 +13779,7 @@
         <v>5</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C312" s="12" t="s">
         <v>618</v>
@@ -13852,7 +13802,7 @@
         <v>5</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C313" s="12" t="s">
         <v>618</v>
@@ -13875,7 +13825,7 @@
         <v>5</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>618</v>
@@ -13949,13 +13899,13 @@
         <v>38</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>764</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>30</v>
@@ -14065,25 +14015,25 @@
         <v>194</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>767</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>766</v>
@@ -14121,22 +14071,22 @@
         <v>194</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>556</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="W3" s="14" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="58" x14ac:dyDescent="0.35">
@@ -15031,7 +14981,7 @@
         <v>2019</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>112</v>
@@ -15043,19 +14993,19 @@
         <v>194</v>
       </c>
       <c r="U23" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y23" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB23" s="14" t="s">
         <v>783</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="AA23" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="AB23" s="14" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15075,13 +15025,13 @@
         <v>599</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G24" s="14">
         <v>2010</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>513</v>
@@ -15110,13 +15060,13 @@
         <v>598</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G25" s="14">
         <v>2018</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>513</v>
@@ -15128,10 +15078,10 @@
         <v>194</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -15151,13 +15101,13 @@
         <v>606</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G26" s="14">
         <v>2021</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>513</v>
@@ -15169,25 +15119,25 @@
         <v>194</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="S26" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="U26" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y26" s="14" t="s">
         <v>795</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>870</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
@@ -15207,13 +15157,13 @@
         <v>608</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G27" s="14">
         <v>2021</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>513</v>
@@ -15225,7 +15175,7 @@
         <v>220</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
@@ -15245,13 +15195,13 @@
         <v>604</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G28" s="14">
         <v>2022</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>513</v>
@@ -15708,7 +15658,7 @@
         <v>2020</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>175</v>
@@ -15720,7 +15670,7 @@
         <v>220</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
@@ -15746,7 +15696,7 @@
         <v>2021</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>175</v>
@@ -15758,7 +15708,7 @@
         <v>194</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
@@ -15784,7 +15734,7 @@
         <v>2022</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>175</v>
@@ -15819,7 +15769,7 @@
         <v>2022</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>175</v>
@@ -15831,22 +15781,22 @@
         <v>194</v>
       </c>
       <c r="L42" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="W42" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="Y42" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="O42" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="W42" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="Y42" s="14" t="s">
+      <c r="AA42" s="14" t="s">
         <v>811</v>
-      </c>
-      <c r="AA42" s="14" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.35">
@@ -15872,7 +15822,7 @@
         <v>2022</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>175</v>
@@ -15907,7 +15857,7 @@
         <v>2022</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>175</v>
@@ -15942,7 +15892,7 @@
         <v>2022</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>175</v>
@@ -15954,7 +15904,7 @@
         <v>220</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
@@ -15980,7 +15930,7 @@
         <v>2022</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>175</v>
@@ -15992,7 +15942,7 @@
         <v>220</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.35">
@@ -16018,7 +15968,7 @@
         <v>2022</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>175</v>
@@ -16053,7 +16003,7 @@
         <v>2023</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>175</v>
@@ -16237,13 +16187,13 @@
         <v>659</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G53" s="14">
         <v>2022</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>353</v>
@@ -16255,7 +16205,7 @@
         <v>220</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="333.5" x14ac:dyDescent="0.35">
@@ -16408,13 +16358,13 @@
         <v>388</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="Q56" s="14" t="s">
         <v>389</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="W56" s="14" t="s">
         <v>390</v>
@@ -16848,16 +16798,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G66" s="14">
         <v>2021</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>620</v>
@@ -16869,22 +16819,22 @@
         <v>194</v>
       </c>
       <c r="R66" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="U66" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="U66" s="14" t="s">
-        <v>834</v>
-      </c>
       <c r="V66" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="W66" s="14" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="X66" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y66" s="14" t="s">
         <v>831</v>
-      </c>
-      <c r="Y66" s="14" t="s">
-        <v>833</v>
       </c>
       <c r="Z66" s="14" t="s">
         <v>255</v>
@@ -16904,43 +16854,43 @@
         <v>5</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G67" s="14">
         <v>2018</v>
       </c>
       <c r="H67" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="R67" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="S67" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="I67" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="R67" s="14" t="s">
-        <v>841</v>
-      </c>
-      <c r="S67" s="14" t="s">
+      <c r="U67" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="X67" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y67" s="14" t="s">
         <v>838</v>
-      </c>
-      <c r="U67" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="X67" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="Y67" s="14" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.35">
@@ -16957,16 +16907,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G68" s="14">
         <v>2022</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>618</v>
@@ -16978,25 +16928,25 @@
         <v>194</v>
       </c>
       <c r="O68" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q68" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="U68" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="V68" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="X68" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="Y68" s="14" t="s">
         <v>846</v>
-      </c>
-      <c r="P68" s="15" t="s">
-        <v>847</v>
-      </c>
-      <c r="Q68" s="14" t="s">
-        <v>851</v>
-      </c>
-      <c r="U68" s="14" t="s">
-        <v>849</v>
-      </c>
-      <c r="V68" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>970</v>
-      </c>
-      <c r="Y68" s="14" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="29" x14ac:dyDescent="0.35">
@@ -17013,16 +16963,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G69" s="14">
         <v>2019</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>618</v>
@@ -17034,7 +16984,7 @@
         <v>194</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -17051,16 +17001,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G70" s="14">
         <v>2020</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>618</v>
@@ -17072,7 +17022,7 @@
         <v>220</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17089,16 +17039,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G71" s="14">
         <v>2021</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>618</v>
@@ -17110,10 +17060,10 @@
         <v>194</v>
       </c>
       <c r="W71" s="14" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="Y71" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -17165,8 +17115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221B120-414C-4095-AF2A-591768752CFE}">
   <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="X69" sqref="X69"/>
     </sheetView>
@@ -17209,13 +17159,13 @@
         <v>38</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>764</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>30</v>
@@ -17325,25 +17275,25 @@
         <v>194</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>444</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="Y2" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="AA2" s="14" t="s">
         <v>862</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="185.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17378,22 +17328,22 @@
         <v>194</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="X3" s="26" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -17428,7 +17378,7 @@
         <v>194</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="U4" s="14" t="s">
         <v>444</v>
@@ -17513,7 +17463,7 @@
         <v>194</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>454</v>
@@ -17827,7 +17777,7 @@
         <v>244</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="Q13" s="14" t="s">
         <v>461</v>
@@ -18123,7 +18073,7 @@
         <v>194</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>468</v>
@@ -18188,7 +18138,7 @@
         <v>194</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="Y21" s="14" t="s">
         <v>474</v>
@@ -18229,7 +18179,7 @@
         <v>194</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>343</v>
@@ -18279,7 +18229,7 @@
         <v>2019</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>112</v>
@@ -18294,16 +18244,16 @@
         <v>486</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Y23" s="14" t="s">
         <v>457</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="AB23" s="14" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="292.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -18323,13 +18273,13 @@
         <v>599</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G24" s="14">
         <v>2010</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>513</v>
@@ -18358,13 +18308,13 @@
         <v>598</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G25" s="14">
         <v>2018</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>513</v>
@@ -18376,7 +18326,7 @@
         <v>194</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="U25" s="14" t="s">
         <v>486</v>
@@ -18399,13 +18349,13 @@
         <v>606</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G26" s="14">
         <v>2021</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>513</v>
@@ -18417,25 +18367,25 @@
         <v>194</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N26" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="U26" s="14" t="s">
         <v>869</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="Q26" s="14" t="s">
-        <v>906</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>872</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>871</v>
       </c>
       <c r="Y26" s="14" t="s">
         <v>456</v>
@@ -18458,13 +18408,13 @@
         <v>608</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G27" s="14">
         <v>2021</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>513</v>
@@ -18476,7 +18426,7 @@
         <v>220</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.35">
@@ -18496,13 +18446,13 @@
         <v>604</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G28" s="14">
         <v>2022</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>513</v>
@@ -18625,7 +18575,7 @@
         <v>194</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="U31" s="14" t="s">
         <v>476</v>
@@ -18962,7 +18912,7 @@
         <v>2020</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>175</v>
@@ -18974,7 +18924,7 @@
         <v>220</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
@@ -19000,7 +18950,7 @@
         <v>2021</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>175</v>
@@ -19012,7 +18962,7 @@
         <v>194</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
@@ -19038,7 +18988,7 @@
         <v>2022</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>175</v>
@@ -19073,7 +19023,7 @@
         <v>2022</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>175</v>
@@ -19085,16 +19035,16 @@
         <v>194</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="U42" s="14" t="s">
         <v>493</v>
       </c>
       <c r="W42" s="14" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Y42" s="14" t="s">
         <v>457</v>
@@ -19123,7 +19073,7 @@
         <v>2022</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>175</v>
@@ -19158,7 +19108,7 @@
         <v>2022</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>175</v>
@@ -19170,7 +19120,7 @@
         <v>220</v>
       </c>
       <c r="AA44" s="14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
@@ -19196,7 +19146,7 @@
         <v>2022</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>175</v>
@@ -19208,7 +19158,7 @@
         <v>220</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="29" x14ac:dyDescent="0.35">
@@ -19234,7 +19184,7 @@
         <v>2022</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>175</v>
@@ -19246,7 +19196,7 @@
         <v>220</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.35">
@@ -19272,7 +19222,7 @@
         <v>2022</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>175</v>
@@ -19307,7 +19257,7 @@
         <v>2023</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>175</v>
@@ -19494,13 +19444,13 @@
         <v>659</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G53" s="14">
         <v>2022</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>353</v>
@@ -19512,7 +19462,7 @@
         <v>220</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="58" x14ac:dyDescent="0.35">
@@ -19553,7 +19503,7 @@
         <v>371</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="R54" s="14" t="s">
         <v>491</v>
@@ -19600,7 +19550,7 @@
         <v>194</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="R55" s="14" t="s">
         <v>380</v>
@@ -19662,10 +19612,10 @@
         <v>388</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="W56" s="14" t="s">
         <v>445</v>
@@ -19747,7 +19697,7 @@
         <v>194</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="U58" s="14" t="s">
         <v>496</v>
@@ -19791,10 +19741,10 @@
         <v>194</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="P59" s="14" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="Q59" s="14" t="s">
         <v>478</v>
@@ -19894,7 +19844,7 @@
         <v>501</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="Q61" s="14" t="s">
         <v>478</v>
@@ -20067,7 +20017,7 @@
         <v>505</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="R65" s="14" t="s">
         <v>410</v>
@@ -20096,16 +20046,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G66" s="14">
         <v>2021</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>620</v>
@@ -20117,13 +20067,13 @@
         <v>194</v>
       </c>
       <c r="R66" s="14" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="U66" s="14" t="s">
         <v>476</v>
       </c>
       <c r="V66" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="W66" s="14" t="s">
         <v>445</v>
@@ -20152,19 +20102,19 @@
         <v>5</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G67" s="14">
         <v>2018</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J67" s="14" t="s">
         <v>194</v>
@@ -20173,25 +20123,25 @@
         <v>194</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="R67" s="14" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="S67" s="14" t="s">
         <v>454</v>
       </c>
       <c r="T67" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="U67" s="14" t="s">
         <v>493</v>
       </c>
       <c r="V67" s="15" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="X67" s="15" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="Y67" s="14" t="s">
         <v>506</v>
@@ -20211,16 +20161,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G68" s="14">
         <v>2022</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>618</v>
@@ -20232,25 +20182,25 @@
         <v>194</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="Q68" s="14" t="s">
         <v>478</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="U68" s="14" t="s">
         <v>493</v>
       </c>
       <c r="V68" s="14" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="X68" s="15" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="Y68" s="14" t="s">
         <v>457</v>
@@ -20270,16 +20220,16 @@
         <v>5</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G69" s="14">
         <v>2019</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>618</v>
@@ -20294,7 +20244,7 @@
         <v>478</v>
       </c>
       <c r="R69" s="14" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -20311,16 +20261,16 @@
         <v>5</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G70" s="14">
         <v>2020</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>618</v>
@@ -20332,7 +20282,7 @@
         <v>220</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="104.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -20349,16 +20299,16 @@
         <v>5</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G71" s="14">
         <v>2021</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>618</v>
@@ -20370,10 +20320,10 @@
         <v>194</v>
       </c>
       <c r="W71" s="14" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="X71" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="Y71" s="14" t="s">
         <v>457</v>
